--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="智能销售平台" sheetId="2" r:id="rId1"/>
+    <sheet name="九宫格抽奖系统" sheetId="2" r:id="rId1"/>
     <sheet name="user" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
   <si>
     <t>用例ID</t>
   </si>
@@ -68,19 +68,676 @@
     <t>traffic_01</t>
   </si>
   <si>
-    <t>登录</t>
+    <t>01 - 后台登录</t>
   </si>
   <si>
     <t>登录成功</t>
   </si>
   <si>
-    <t>/api/traffic/auth/login</t>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/login</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
     <t>json</t>
+  </si>
+  <si>
+    <t>{
+    "adminPassword": "yhd123456",
+    "adminUsername": "yhdks"
+}</t>
+  </si>
+  <si>
+    <t>rt_code': 0, 'rt_msg': 'success'</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>traffic_02</t>
+  </si>
+  <si>
+    <t>02 - 后台管理_认证令牌（token）刷新</t>
+  </si>
+  <si>
+    <t>获取令牌成功</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/activities</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{"bearer_token": "${bearerToken}$"}</t>
+  </si>
+  <si>
+    <t>traffic_03</t>
+  </si>
+  <si>
+    <t>03 - 后台管理_新增活动</t>
+  </si>
+  <si>
+    <t>新增活动成功</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/activity/create</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{
+    "activityName": "YHD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>九九九宫格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "activityStartTime": "2020-01-02 00:00:00",
+    "activityEndTime": "2020-10-10 00:00:00",
+    "activityWinNote": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您可以找现场工作人员兑换奖品，请在抽到奖品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟内领取，逾期作废</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "activityContent": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参与活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "activityKeyword": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>九宫格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "activityRule": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一等奖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\nHUAWEI",
+    "activityEndNote": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亲，活动已经结束，请继续关注我们的后续活动哦。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "activityStatus": "ENABLED",
+    "activityJoinLimitType": "TOTAL",
+    "activityJoinTimes": 2,
+    "prizes": [
+        {
+            "prizeName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充电宝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+            "prizeSortId": 1,
+            "prizeAmount": 10,
+            "prizeImage": "http://image.com",
+            "prizeWinRate": 90
+        },
+        {
+            "prizeName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电饭煲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+            "prizeSortId": 2,
+            "prizeAmount": 1000,
+            "prizeImage": "http://image.com",
+            "prizeWinRate": 5
+        }
+    ]
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>traffic_04</t>
+  </si>
+  <si>
+    <t>04 - 后台管理_更新活动详情</t>
+  </si>
+  <si>
+    <t>更新活动成功</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/activity/update</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{
+    "activityUniqueCode": "ACTIVITY1c1a56522faf4a9ca9cfee73fbcfe5ce",
+    "activityName": "YHD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水宫格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "activityStartTime": "2020-01-02 00:00:00",
+    "activityEndTime": "2020-10-10 00:00:00",
+    "activityWinNote": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您可以找现场工作人员兑换奖品，请在抽到奖品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟内领取，逾期作废</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "activityContent": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参与活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "activityKeyword": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>九宫格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "activityRule": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一等奖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\nHUAWEI",
+    "activityEndNote": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亲，活动已经结束，请继续关注我们的后续活动哦。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "activityStatus": "ENABLED",
+    "activityJoinLimitType": "TOTAL",
+    "activityJoinTimes": 2,
+    "prizes": [
+        {
+            "prizeUniqueCode": "PRIZE853af046bf36460393c2cc83cc271a0b",
+            "prizeName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充电宝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+            "prizeSortId": 1,
+            "prizeAmount": 10,
+            "prizeImage": "http://image.com",
+            "prizeWinRate": 90
+        },
+        {
+            "prizeUniqueCode": "PRIZE5662d3af846741b382aee9f91677080b",
+            "prizeName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电饭煲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+            "prizeSortId": 2,
+            "prizeAmount": 1000,
+            "prizeImage": "http://image.com",
+            "prizeWinRate": 5
+        }
+    ]
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>traffic_05</t>
+  </si>
+  <si>
+    <t>05 - 后台管理_启用活动</t>
+  </si>
+  <si>
+    <t>启用活动失败</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/activity/enable</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{
+    "activityUniqueCode": "ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d1"
+}</t>
+  </si>
+  <si>
+    <t>rt_code': 513510, 'rt_msg': 'activity not found'</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>traffic_06</t>
+  </si>
+  <si>
+    <t>06 - 后台管理_禁用活动</t>
+  </si>
+  <si>
+    <t>禁用活动失败</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/activity/disable</t>
+  </si>
+  <si>
+    <t>{
+    "activityUniqueCode": "ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d2"
+}</t>
+  </si>
+  <si>
+    <t>traffic_07</t>
+  </si>
+  <si>
+    <t>07 - 后台管理_删除活动</t>
+  </si>
+  <si>
+    <t>删除活动失败</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/activity/delete</t>
+  </si>
+  <si>
+    <t>traffic_08</t>
+  </si>
+  <si>
+    <t>08 - 后台管理_统计_活动对应奖品数目（总数，中奖数）</t>
+  </si>
+  <si>
+    <t>获取活动对应奖品数目</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/statistics/activity/prize/count</t>
+  </si>
+  <si>
+    <t>traffic_09</t>
+  </si>
+  <si>
+    <t>09 - 后台管理_统计_活动对应抽奖记录</t>
+  </si>
+  <si>
+    <t>获取对应抽奖记录</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/statistics/user/prize</t>
+  </si>
+  <si>
+    <t>{
+    "activityUniqueCode":"ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d1",
+    "recordType":"ALL"
+}</t>
+  </si>
+  <si>
+    <t>traffic_10</t>
+  </si>
+  <si>
+    <t>10 - 后台管理_统计_单次活动用户行为轨迹</t>
+  </si>
+  <si>
+    <t>获取单次活动用户行为轨迹</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/statistics/user/behavior</t>
+  </si>
+  <si>
+    <t>{
+    "activityUniqueCode": "ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d1",
+    "activityStartTime": "",
+    "activityEndTime": "",
+    "yhdFaUserPost": "",
+    "isJoined": false,
+    "isReceived": false,
+    "isNew": false
+}</t>
+  </si>
+  <si>
+    <t>traffic_11</t>
+  </si>
+  <si>
+    <t>11 - 后台管理_统计_活动转化率</t>
+  </si>
+  <si>
+    <t>获取活动转化率</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/statistics/activity/rate/user</t>
+  </si>
+  <si>
+    <t>{
+    "activityStartTime": "",
+    "activityEndTime": ""
+}</t>
+  </si>
+  <si>
+    <t>traffic_12</t>
+  </si>
+  <si>
+    <t>12 - 后台管理_统计_奖品发放数量</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/statistics/activity/prize/deliver</t>
+  </si>
+  <si>
+    <t>traffic_13</t>
+  </si>
+  <si>
+    <t>获取奖品统计数量</t>
+  </si>
+  <si>
+    <t>traffic_14</t>
+  </si>
+  <si>
+    <t>13 - 后台管理_文件_图片上传（统一文件网关）</t>
+  </si>
+  <si>
+    <t>上传图片</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/image/upload</t>
+  </si>
+  <si>
+    <t>{
+}</t>
+  </si>
+  <si>
+    <t>traffic_15</t>
+  </si>
+  <si>
+    <t>14 - 后台管理_用户奖品_查询用户获奖信息</t>
+  </si>
+  <si>
+    <t>查询用户获奖信息</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/prize/search/user</t>
+  </si>
+  <si>
+    <t>{
+    "yhdFaUserMobile": "15818376788"
+}</t>
+  </si>
+  <si>
+    <t>traffic_16</t>
+  </si>
+  <si>
+    <t>15 - 后台管理_用户奖品_发放</t>
+  </si>
+  <si>
+    <t>查询用户奖品发放</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/prize/delivery/ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d1</t>
+  </si>
+  <si>
+    <t>rt_code': 513521, 'rt_msg': 'receive prize failed'</t>
+  </si>
+  <si>
+    <t>traffic_17</t>
+  </si>
+  <si>
+    <t>16 - 活动信息页_登录（对接电商授权系统）</t>
+  </si>
+  <si>
+    <t>http://activity.yhdfa.com/api/traffic/auth/login</t>
   </si>
   <si>
     <t>{
@@ -92,43 +749,79 @@
 }</t>
   </si>
   <si>
-    <t>rt_code': 0, 'rt_msg': 'success'</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>traffic_02</t>
-  </si>
-  <si>
-    <t>获取中奖商品</t>
+    <t>traffic_18</t>
+  </si>
+  <si>
+    <t>17 - 活动信息页_注册（对接电商授权系统）</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>traffic_19</t>
+  </si>
+  <si>
+    <t>18 - 活动信息页_我的奖品</t>
   </si>
   <si>
     <t>获取中奖商品接口</t>
   </si>
   <si>
-    <t>/api/traffic/user/prize</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>{"bearer_token": "${bearerToken}$"}</t>
-  </si>
-  <si>
-    <t>traffic_03</t>
-  </si>
-  <si>
-    <t>后台登录</t>
-  </si>
-  <si>
-    <t>traffic_04</t>
+    <t>http://activity.yhdfa.com/api/traffic/user/prize</t>
+  </si>
+  <si>
+    <t>traffic_20</t>
+  </si>
+  <si>
+    <t>19 - 活动信息页_开始抽奖</t>
+  </si>
+  <si>
+    <t>开始抽奖</t>
+  </si>
+  <si>
+    <t>http://activity.yhdfa.com/api/traffic/activity/play</t>
+  </si>
+  <si>
+    <t>traffic_21</t>
+  </si>
+  <si>
+    <t>20 - 活动信息页_活动详情</t>
+  </si>
+  <si>
+    <t>活动详情</t>
+  </si>
+  <si>
+    <t>http://activity.yhdfa.com/api/traffic/activity/detail/ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d1</t>
+  </si>
+  <si>
+    <t>traffic_22</t>
+  </si>
+  <si>
+    <t>21 - 活动信息页_获奖名单</t>
+  </si>
+  <si>
+    <t>获奖名单</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/activity/ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d1</t>
+  </si>
+  <si>
+    <t>traffic_23</t>
+  </si>
+  <si>
+    <t>22 - 后台管理_获取活动详情</t>
+  </si>
+  <si>
+    <t>获取活动详情</t>
+  </si>
+  <si>
+    <t>traffic_24</t>
+  </si>
+  <si>
+    <t>23 - 后台管理_获取活动列表</t>
   </si>
   <si>
     <t>获取活动列表</t>
-  </si>
-  <si>
-    <t>获取成功</t>
   </si>
   <si>
     <t>运行级别</t>
@@ -159,19 +852,11 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -202,22 +887,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -225,6 +918,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -239,7 +956,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -252,9 +984,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -267,41 +999,16 @@
       <scheme val="major"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -314,11 +1021,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -336,7 +1042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +1060,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,13 +1102,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +1120,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,97 +1192,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,25 +1210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,8 +1220,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -582,30 +1288,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -630,22 +1312,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,21 +1332,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,7 +1355,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,16 +1364,33 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,162 +1412,163 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,10 +1578,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -916,17 +1587,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -934,41 +1614,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -978,48 +1655,64 @@
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
     <cellStyle name="差" xfId="7" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
     <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="注释" xfId="12" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="13" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="14" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="15" builtinId="11"/>
-    <cellStyle name="标题" xfId="16" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="17" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="18" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="19" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="21" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="22" builtinId="44"/>
-    <cellStyle name="输出" xfId="23" builtinId="21"/>
-    <cellStyle name="计算" xfId="24" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="25" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="26" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="27" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="28" builtinId="24"/>
-    <cellStyle name="汇总" xfId="29" builtinId="25"/>
-    <cellStyle name="好" xfId="30" builtinId="26"/>
-    <cellStyle name="适中" xfId="31" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="32" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="33" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="34" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="35" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="36" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="37" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="38" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="39" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="40" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="41" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="42" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="47" builtinId="52"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
       <border>
         <left/>
         <right style="thin">
@@ -1048,20 +1741,7 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <alignment wrapText="1"/>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -1221,8 +1901,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:L20" totalsRowShown="0">
-  <autoFilter ref="A1:L20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:L40" totalsRowShown="0">
+  <autoFilter ref="A1:L40"/>
   <tableColumns count="12">
     <tableColumn id="1" name="用例ID" dataDxfId="0"/>
     <tableColumn id="13" name="模块" dataDxfId="1"/>
@@ -1499,464 +2179,1355 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
+    <col min="2" max="2" width="11" style="5"/>
     <col min="3" max="3" width="19.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="43.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="45.7" style="5" customWidth="1"/>
     <col min="5" max="5" width="27.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="11" style="6"/>
-    <col min="7" max="7" width="12.1666666666667" style="6" customWidth="1"/>
-    <col min="8" max="8" width="31.6666666666667" style="6" customWidth="1"/>
-    <col min="9" max="9" width="30.5" style="6" customWidth="1"/>
-    <col min="10" max="11" width="8.16666666666667" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11" style="6"/>
-    <col min="13" max="13" width="29" style="6" customWidth="1"/>
-    <col min="14" max="14" width="19.2" style="6" customWidth="1"/>
-    <col min="15" max="16" width="11" style="6"/>
+    <col min="6" max="6" width="11" style="5"/>
+    <col min="7" max="7" width="12.1666666666667" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.6666666666667" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.9" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.16666666666667" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11" style="5"/>
+    <col min="13" max="13" width="29" style="5" customWidth="1"/>
+    <col min="14" max="14" width="19.2" style="5" customWidth="1"/>
+    <col min="15" max="16" width="11" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="128.25" spans="1:16">
+    <row r="2" ht="57" spans="1:16">
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="12" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14">
         <v>200</v>
       </c>
-      <c r="P2" s="12"/>
-    </row>
-    <row r="3" ht="28.5" spans="1:16">
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:16">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="12" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12">
+      <c r="N3" s="14"/>
+      <c r="O3" s="14">
         <v>200</v>
       </c>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" ht="31" customHeight="1" spans="1:16">
       <c r="A4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14">
+        <v>200</v>
+      </c>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" ht="31" customHeight="1" spans="1:16">
+      <c r="A5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14">
+        <v>200</v>
+      </c>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:16">
+      <c r="A6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14">
+        <v>200</v>
+      </c>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" ht="27" customHeight="1" spans="1:16">
+      <c r="A7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14">
+        <v>200</v>
+      </c>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:16">
+      <c r="A8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14">
+        <v>200</v>
+      </c>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:16">
+      <c r="A9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14">
+        <v>200</v>
+      </c>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" ht="27" customHeight="1" spans="1:16">
+      <c r="A10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14">
+        <v>200</v>
+      </c>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:16">
+      <c r="A11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14">
+        <v>200</v>
+      </c>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" ht="27" customHeight="1" spans="1:16">
+      <c r="A12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14">
+        <v>200</v>
+      </c>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" ht="27" customHeight="1" spans="1:16">
+      <c r="A13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14">
+        <v>200</v>
+      </c>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" ht="27" customHeight="1" spans="1:16">
+      <c r="A14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14">
+        <v>200</v>
+      </c>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" ht="27" customHeight="1" spans="1:16">
+      <c r="A15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14">
+        <v>200</v>
+      </c>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" ht="27" customHeight="1" spans="1:16">
+      <c r="A16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14">
+        <v>200</v>
+      </c>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" ht="27" customHeight="1" spans="1:16">
+      <c r="A17" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14">
+        <v>200</v>
+      </c>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:16">
+      <c r="A18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="D18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="14"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="L18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14">
+        <v>200</v>
+      </c>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:16">
+      <c r="A19" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="14"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="18"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="L19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" ht="27" customHeight="1" spans="1:16">
+      <c r="A20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="14"/>
       <c r="K20" s="22"/>
-      <c r="L20" s="18"/>
+      <c r="L20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14">
+        <v>200</v>
+      </c>
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" ht="27" customHeight="1" spans="1:16">
+      <c r="A21" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14">
+        <v>200</v>
+      </c>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" ht="27" customHeight="1" spans="1:16">
+      <c r="A22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14">
+        <v>200</v>
+      </c>
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" ht="31" customHeight="1" spans="1:16">
+      <c r="A23" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14">
+        <v>200</v>
+      </c>
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" ht="27" customHeight="1" spans="1:16">
+      <c r="A24" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14">
+        <v>200</v>
+      </c>
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" ht="27" customHeight="1" spans="1:16">
+      <c r="A25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14">
+        <v>200</v>
+      </c>
+      <c r="P25" s="14"/>
+    </row>
+    <row r="26" ht="27" customHeight="1" spans="1:16">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId2" display="http://admin.activity.yhdfa.com/api/traffic/admin/login" tooltip="http://admin.activity.yhdfa.com/api/traffic/admin/login"/>
+    <hyperlink ref="D3" r:id="rId3" display="http://admin.activity.yhdfa.com/api/traffic/admin/activities"/>
+    <hyperlink ref="D4" r:id="rId4" display="http://admin.activity.yhdfa.com/api/traffic/admin/activity/create" tooltip="http://admin.activity.yhdfa.com/api/traffic/admin/activity/create"/>
+    <hyperlink ref="D5" r:id="rId5" display="http://admin.activity.yhdfa.com/api/traffic/admin/activity/update" tooltip="http://admin.activity.yhdfa.com/api/traffic/admin/activity/update"/>
+    <hyperlink ref="D6" r:id="rId6" display="http://admin.activity.yhdfa.com/api/traffic/admin/activity/enable" tooltip="http://admin.activity.yhdfa.com/api/traffic/admin/activity/enable"/>
+    <hyperlink ref="D7" r:id="rId7" display="http://admin.activity.yhdfa.com/api/traffic/admin/activity/disable" tooltip="http://admin.activity.yhdfa.com/api/traffic/admin/activity/disable"/>
+    <hyperlink ref="D8" r:id="rId8" display="http://admin.activity.yhdfa.com/api/traffic/admin/activity/delete" tooltip="http://admin.activity.yhdfa.com/api/traffic/admin/activity/delete"/>
+    <hyperlink ref="D9" r:id="rId9" display="http://admin.activity.yhdfa.com/api/traffic/admin/statistics/activity/prize/count" tooltip="http://admin.activity.yhdfa.com/api/traffic/admin/statistics/activity/prize/count"/>
+    <hyperlink ref="D10" r:id="rId10" display="http://admin.activity.yhdfa.com/api/traffic/admin/statistics/user/prize" tooltip="http://admin.activity.yhdfa.com/api/traffic/admin/statistics/user/prize"/>
+    <hyperlink ref="D11" r:id="rId11" display="http://admin.activity.yhdfa.com/api/traffic/admin/statistics/user/behavior" tooltip="http://admin.activity.yhdfa.com/api/traffic/admin/statistics/user/behavior"/>
+    <hyperlink ref="D12" r:id="rId12" display="http://admin.activity.yhdfa.com/api/traffic/admin/statistics/activity/rate/user" tooltip="http://admin.activity.yhdfa.com/api/traffic/admin/statistics/activity/rate/user"/>
+    <hyperlink ref="D13" r:id="rId13" display="http://admin.activity.yhdfa.com/api/traffic/admin/statistics/activity/prize/deliver" tooltip="http://admin.activity.yhdfa.com/api/traffic/admin/statistics/activity/prize/deliver"/>
+    <hyperlink ref="D14" r:id="rId13" display="http://admin.activity.yhdfa.com/api/traffic/admin/statistics/activity/prize/deliver" tooltip="http://admin.activity.yhdfa.com/api/traffic/admin/statistics/activity/prize/deliver"/>
+    <hyperlink ref="D15" r:id="rId14" display="http://admin.activity.yhdfa.com/api/traffic/admin/image/upload"/>
+    <hyperlink ref="D16" r:id="rId15" display="http://admin.activity.yhdfa.com/api/traffic/admin/prize/search/user"/>
+    <hyperlink ref="D17" r:id="rId16" display="http://admin.activity.yhdfa.com/api/traffic/admin/prize/delivery/ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d1"/>
+    <hyperlink ref="D18" r:id="rId17" display="http://activity.yhdfa.com/api/traffic/auth/login" tooltip="http://activity.yhdfa.com/api/traffic/auth/login"/>
+    <hyperlink ref="D20" r:id="rId18" display="http://activity.yhdfa.com/api/traffic/user/prize"/>
+    <hyperlink ref="D21" r:id="rId19" display="http://activity.yhdfa.com/api/traffic/activity/play" tooltip="http://activity.yhdfa.com/api/traffic/activity/play"/>
+    <hyperlink ref="D22" r:id="rId20" display="http://activity.yhdfa.com/api/traffic/activity/detail/ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d1" tooltip="http://activity.yhdfa.com/api/traffic/activity/detail/ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d1"/>
+    <hyperlink ref="D23" r:id="rId21" display="http://admin.activity.yhdfa.com/api/traffic/admin/activity/ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d1" tooltip="http://admin.activity.yhdfa.com/api/traffic/admin/activity/ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d1"/>
+    <hyperlink ref="D24" r:id="rId21" display="http://admin.activity.yhdfa.com/api/traffic/admin/activity/ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d1"/>
+    <hyperlink ref="D25" r:id="rId3" display="http://admin.activity.yhdfa.com/api/traffic/admin/activities"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1987,51 +3558,51 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
-        <v>38</v>
+      <c r="A3" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
-        <v>39</v>
+      <c r="A4" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
-        <v>40</v>
+      <c r="A5" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
-        <v>41</v>
+      <c r="A6" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
-        <v>42</v>
+      <c r="A7" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="九宫格抽奖系统" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="130">
   <si>
     <t>用例ID</t>
   </si>
@@ -92,7 +92,7 @@
     <t>rt_code': 0, 'rt_msg': 'success'</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Y</t>
   </si>
   <si>
     <t>traffic_02</t>
@@ -125,207 +125,6 @@
     <t>http://admin.activity.yhdfa.com/api/traffic/admin/activity/create</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{
-    "activityName": "YHD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>九九九宫格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-    "activityStartTime": "2020-01-02 00:00:00",
-    "activityEndTime": "2020-10-10 00:00:00",
-    "activityWinNote": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>您可以找现场工作人员兑换奖品，请在抽到奖品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分钟内领取，逾期作废</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-    "activityContent": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参与活动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-    "activityKeyword": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>九宫格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-    "activityRule": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一等奖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\nHUAWEI",
-    "activityEndNote": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亲，活动已经结束，请继续关注我们的后续活动哦。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-    "activityStatus": "ENABLED",
-    "activityJoinLimitType": "TOTAL",
-    "activityJoinTimes": 2,
-    "prizes": [
-        {
-            "prizeName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>充电宝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-            "prizeSortId": 1,
-            "prizeAmount": 10,
-            "prizeImage": "http://image.com",
-            "prizeWinRate": 90
-        },
-        {
-            "prizeName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电饭煲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-            "prizeSortId": 2,
-            "prizeAmount": 1000,
-            "prizeImage": "http://image.com",
-            "prizeWinRate": 5
-        }
-    ]
-}</t>
-    </r>
-  </si>
-  <si>
     <t>traffic_04</t>
   </si>
   <si>
@@ -338,210 +137,6 @@
     <t>http://admin.activity.yhdfa.com/api/traffic/admin/activity/update</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{
-    "activityUniqueCode": "ACTIVITY1c1a56522faf4a9ca9cfee73fbcfe5ce",
-    "activityName": "YHD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水宫格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-    "activityStartTime": "2020-01-02 00:00:00",
-    "activityEndTime": "2020-10-10 00:00:00",
-    "activityWinNote": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>您可以找现场工作人员兑换奖品，请在抽到奖品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分钟内领取，逾期作废</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-    "activityContent": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参与活动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-    "activityKeyword": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>九宫格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-    "activityRule": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一等奖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\nHUAWEI",
-    "activityEndNote": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亲，活动已经结束，请继续关注我们的后续活动哦。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-    "activityStatus": "ENABLED",
-    "activityJoinLimitType": "TOTAL",
-    "activityJoinTimes": 2,
-    "prizes": [
-        {
-            "prizeUniqueCode": "PRIZE853af046bf36460393c2cc83cc271a0b",
-            "prizeName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>充电宝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-            "prizeSortId": 1,
-            "prizeAmount": 10,
-            "prizeImage": "http://image.com",
-            "prizeWinRate": 90
-        },
-        {
-            "prizeUniqueCode": "PRIZE5662d3af846741b382aee9f91677080b",
-            "prizeName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电饭煲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-            "prizeSortId": 2,
-            "prizeAmount": 1000,
-            "prizeImage": "http://image.com",
-            "prizeWinRate": 5
-        }
-    ]
-}</t>
-    </r>
-  </si>
-  <si>
     <t>traffic_05</t>
   </si>
   <si>
@@ -557,17 +152,9 @@
     <t>GET</t>
   </si>
   <si>
-    <t>{
-    "activityUniqueCode": "ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d1"
-}</t>
-  </si>
-  <si>
     <t>rt_code': 513510, 'rt_msg': 'activity not found'</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>traffic_06</t>
   </si>
   <si>
@@ -578,35 +165,35 @@
   </si>
   <si>
     <t>http://admin.activity.yhdfa.com/api/traffic/admin/activity/disable</t>
+  </si>
+  <si>
+    <t>traffic_07</t>
+  </si>
+  <si>
+    <t>07 - 后台管理_删除活动</t>
+  </si>
+  <si>
+    <t>删除活动失败</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/activity/delete</t>
+  </si>
+  <si>
+    <t>traffic_08</t>
+  </si>
+  <si>
+    <t>08 - 后台管理_统计_活动对应奖品数目（总数，中奖数）</t>
+  </si>
+  <si>
+    <t>获取活动对应奖品数目</t>
+  </si>
+  <si>
+    <t>http://admin.activity.yhdfa.com/api/traffic/admin/statistics/activity/prize/count</t>
   </si>
   <si>
     <t>{
     "activityUniqueCode": "ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d2"
 }</t>
-  </si>
-  <si>
-    <t>traffic_07</t>
-  </si>
-  <si>
-    <t>07 - 后台管理_删除活动</t>
-  </si>
-  <si>
-    <t>删除活动失败</t>
-  </si>
-  <si>
-    <t>http://admin.activity.yhdfa.com/api/traffic/admin/activity/delete</t>
-  </si>
-  <si>
-    <t>traffic_08</t>
-  </si>
-  <si>
-    <t>08 - 后台管理_统计_活动对应奖品数目（总数，中奖数）</t>
-  </si>
-  <si>
-    <t>获取活动对应奖品数目</t>
-  </si>
-  <si>
-    <t>http://admin.activity.yhdfa.com/api/traffic/admin/statistics/activity/prize/count</t>
   </si>
   <si>
     <t>traffic_09</t>
@@ -677,6 +264,11 @@
     <t>http://admin.activity.yhdfa.com/api/traffic/admin/statistics/activity/prize/deliver</t>
   </si>
   <si>
+    <t>{
+    "activityUniqueCode": "ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d1"
+}</t>
+  </si>
+  <si>
     <t>traffic_13</t>
   </si>
   <si>
@@ -693,10 +285,6 @@
   </si>
   <si>
     <t>http://admin.activity.yhdfa.com/api/traffic/admin/image/upload</t>
-  </si>
-  <si>
-    <t>{
-}</t>
   </si>
   <si>
     <t>traffic_15</t>
@@ -726,6 +314,10 @@
   </si>
   <si>
     <t>http://admin.activity.yhdfa.com/api/traffic/admin/prize/delivery/ACTIVITY81d3351d0ae24e6bb93a754dcf3ed8d1</t>
+  </si>
+  <si>
+    <t>{
+}</t>
   </si>
   <si>
     <t>rt_code': 513521, 'rt_msg': 'receive prize failed'</t>
@@ -850,12 +442,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,7 +494,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -910,30 +502,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -948,7 +517,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -956,7 +525,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -970,15 +567,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -992,23 +591,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1021,10 +605,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1042,7 +628,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,37 +682,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,7 +724,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,25 +766,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,91 +808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,26 +898,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1354,28 +940,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1396,16 +962,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1413,8 +979,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1426,10 +1012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1438,137 +1024,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1636,9 +1222,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2181,10 +1764,10 @@
   <sheetPr/>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2278,7 +1861,7 @@
       <c r="H2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="14"/>
@@ -2318,7 +1901,7 @@
       <c r="H3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="14"/>
@@ -2326,7 +1909,7 @@
       <c r="L3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N3" s="14"/>
@@ -2357,10 +1940,8 @@
       <c r="G4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="14"/>
@@ -2368,7 +1949,7 @@
       <c r="L4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N4" s="14"/>
@@ -2379,16 +1960,16 @@
     </row>
     <row r="5" ht="31" customHeight="1" spans="1:16">
       <c r="A5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>16</v>
@@ -2399,10 +1980,8 @@
       <c r="G5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="24" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="14"/>
@@ -2410,7 +1989,7 @@
       <c r="L5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N5" s="14"/>
@@ -2421,38 +2000,36 @@
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:16">
       <c r="A6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D6" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>47</v>
+      <c r="H6" s="14"/>
+      <c r="I6" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="22"/>
       <c r="L6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N6" s="14"/>
@@ -2463,38 +2040,36 @@
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:16">
       <c r="A7" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>47</v>
+      <c r="H7" s="14"/>
+      <c r="I7" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="22"/>
       <c r="L7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N7" s="14"/>
@@ -2505,38 +2080,36 @@
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:16">
       <c r="A8" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>47</v>
+      <c r="H8" s="14"/>
+      <c r="I8" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="22"/>
       <c r="L8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N8" s="14"/>
@@ -2547,38 +2120,38 @@
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:16">
       <c r="A9" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>47</v>
+        <v>57</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="22"/>
       <c r="L9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N9" s="14"/>
@@ -2589,16 +2162,16 @@
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:16">
       <c r="A10" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>16</v>
@@ -2610,17 +2183,17 @@
         <v>21</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="22"/>
       <c r="L10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N10" s="14"/>
@@ -2631,16 +2204,16 @@
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:16">
       <c r="A11" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>16</v>
@@ -2652,17 +2225,17 @@
         <v>21</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="22"/>
       <c r="L11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N11" s="14"/>
@@ -2673,16 +2246,16 @@
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:16">
       <c r="A12" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>16</v>
@@ -2694,17 +2267,17 @@
         <v>21</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="22"/>
       <c r="L12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N12" s="14"/>
@@ -2715,16 +2288,16 @@
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:16">
       <c r="A13" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>16</v>
@@ -2736,17 +2309,17 @@
         <v>21</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="22"/>
       <c r="L13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N13" s="14"/>
@@ -2757,16 +2330,16 @@
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:16">
       <c r="A14" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="D14" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>16</v>
@@ -2778,17 +2351,17 @@
         <v>21</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="22"/>
       <c r="L14" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N14" s="14"/>
@@ -2799,16 +2372,16 @@
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:16">
       <c r="A15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>16</v>
@@ -2819,10 +2392,8 @@
       <c r="G15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="24" t="s">
+      <c r="H15" s="14"/>
+      <c r="I15" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="14"/>
@@ -2830,7 +2401,7 @@
       <c r="L15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N15" s="14"/>
@@ -2841,16 +2412,16 @@
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:16">
       <c r="A16" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>16</v>
@@ -2862,17 +2433,17 @@
         <v>21</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="22"/>
       <c r="L16" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N16" s="14"/>
@@ -2883,38 +2454,38 @@
     </row>
     <row r="17" ht="27" customHeight="1" spans="1:16">
       <c r="A17" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="22"/>
       <c r="L17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="14"/>
@@ -2925,16 +2496,16 @@
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:16">
       <c r="A18" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="14" t="s">
@@ -2944,15 +2515,15 @@
         <v>21</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="22"/>
       <c r="L18" s="14" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
@@ -2963,13 +2534,13 @@
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:16">
       <c r="A19" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="10"/>
@@ -2979,7 +2550,7 @@
       <c r="G19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J19" s="14"/>
@@ -2994,36 +2565,36 @@
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:16">
       <c r="A20" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>107</v>
-      </c>
       <c r="E20" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="14"/>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="22"/>
       <c r="L20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N20" s="14"/>
@@ -3034,28 +2605,28 @@
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:16">
       <c r="A21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>111</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="14"/>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="14"/>
@@ -3063,7 +2634,7 @@
       <c r="L21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="24" t="s">
+      <c r="M21" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N21" s="14"/>
@@ -3074,36 +2645,36 @@
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:16">
       <c r="A22" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>115</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="14"/>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="22"/>
       <c r="L22" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N22" s="14"/>
@@ -3114,36 +2685,36 @@
     </row>
     <row r="23" ht="31" customHeight="1" spans="1:16">
       <c r="A23" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="14"/>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="22"/>
       <c r="L23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N23" s="14"/>
@@ -3154,36 +2725,36 @@
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:16">
       <c r="A24" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="14"/>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="22"/>
       <c r="L24" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N24" s="14"/>
@@ -3194,13 +2765,13 @@
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:16">
       <c r="A25" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>28</v>
@@ -3215,7 +2786,7 @@
         <v>21</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="14"/>
@@ -3223,7 +2794,7 @@
       <c r="L25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="24" t="s">
+      <c r="M25" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N25" s="14"/>
@@ -3461,10 +3032,10 @@
       <c r="J38" s="14"/>
       <c r="K38" s="22"/>
       <c r="L38" s="14"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="10"/>
@@ -3479,10 +3050,10 @@
       <c r="J39" s="14"/>
       <c r="K39" s="22"/>
       <c r="L39" s="14"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="10"/>
@@ -3497,10 +3068,10 @@
       <c r="J40" s="14"/>
       <c r="K40" s="22"/>
       <c r="L40" s="14"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3558,7 +3129,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -3567,32 +3138,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:1">
